--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbinsong/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD637F8-DFC1-3947-889E-B7556600CC4E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218ABD70-7C01-7341-A3DF-0704D6502F7C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户故事" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>添加组卷</t>
   </si>
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>{"value":["test","test2","test"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -414,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -429,7 +425,7 @@
     <col min="5" max="5" width="32.33203125" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
     <col min="7" max="7" width="38.83203125" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -437,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -446,7 +442,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1">
         <v>200</v>
@@ -455,37 +451,46 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="E2" s="2"/>
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="E6" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbinsong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\20170301\教学过程\Development\RobberStopper\RubberStopper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218ABD70-7C01-7341-A3DF-0704D6502F7C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16695"/>
   </bookViews>
   <sheets>
     <sheet name="用户故事" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>添加组卷</t>
   </si>
@@ -41,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"tests": "test"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加组卷1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,17 +53,25 @@
   </si>
   <si>
     <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"yuyao004","name":"俞瑶创建的不一样的题第4张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"9ac4457476d245f786bbd3e0e2635632","score":2.0},{"no":"3","questionId":"7e981f90724a40d3aae5916b353f8f64","score":3.0},{"no":"4","questionId":"77ee19682910478ab9cf9b68f6a13298","score":4.0},{"no":"5","questionId":"3c694b357b5c4306852c4ea3f26ed24e","score":5.0},{"no":"6","questionId":"1c817982b1184603aec2275ab9dcd1e2","score":6.0},{"no":"7","questionId":"33f5c486c0a447f9a47aeee5ba35affd","score":7.0},{"no":"8","questionId":"7c288922eee541bfbb1b97f11f1f2474","score":8.0},{"no":"9","questionId":"6fe4ebcb5cd049efb4324f734f7bb2e7","score":9.0},{"no":"10","questionId":"3e62c45c0fde494e9e3de0258bdd74e5","score":10.0},{"no":"11","questionId":"a7c71e52013640dab8e3aa8c1b773cdb","score":4.5},{"no":"12","questionId":"738bfd7d62e9491e8beb0fa0275e71d7","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"7b21add87e44427abbd2f65de2a87e06","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"7b21add87e44427abbd2f65de2a87e06","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"2014dsse47","name":"俞瑶创建的第23张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"0768fa286a7347f89cb1f467e765db4e","score":2.0},{"no":"3","questionId":"0768fa286a7347f89cb1f467e765db4e","score":3.0},{"no":"4","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.0},{"no":"5","questionId":"0768fa286a7347f89cb1f467e765db4e","score":5.0},{"no":"6","questionId":"0768fa286a7347f89cb1f467e765db4e","score":6.0},{"no":"7","questionId":"0768fa286a7347f89cb1f467e765db4e","score":7.0},{"no":"8","questionId":"0768fa286a7347f89cb1f467e765db4e","score":8.0},{"no":"9","questionId":"0768fa286a7347f89cb1f467e765db4e","score":9.0},{"no":"10","questionId":"0768fa286a7347f89cb1f467e765db4e","score":10.0},{"no":"11","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"12","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"2014dsse47","name":"俞瑶创建的第23张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"0768fa286a7347f89cb1f467e765db4e","score":2.0},{"no":"3","questionId":"0768fa286a7347f89cb1f467e765db4e","score":3.0},{"no":"4","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.0},{"no":"5","questionId":"0768fa286a7347f89cb1f467e765db4e","score":5.0},{"no":"6","questionId":"0768fa286a7347f89cb1f467e765db4e","score":6.0},{"no":"7","questionId":"0768fa286a7347f89cb1f467e765db4e","score":7.0},{"no":"8","questionId":"0768fa286a7347f89cb1f467e765db4e","score":8.0},{"no":"9","questionId":"0768fa286a7347f89cb1f467e765db4e","score":9.0},{"no":"10","questionId":"0768fa286a7347f89cb1f467e765db4e","score":10.0},{"no":"11","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"12","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,40 +412,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
-    <col min="7" max="7" width="38.83203125" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.875" customWidth="1"/>
+    <col min="8" max="8" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F1">
         <v>200</v>
@@ -454,35 +457,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="E2" s="2"/>
       <c r="G2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="E3" s="2"/>
       <c r="G3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>200</v>
@@ -497,5 +500,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -19,39 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>添加组卷</t>
   </si>
   <si>
-    <t>/testpapers/smart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"value":["test","test2","test"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"vartest":["test","test2","test"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加组卷1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/testpapers/smart2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"tests": "{{vartest}}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,7 +32,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"yuyao004","name":"俞瑶创建的不一样的题第4张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"9ac4457476d245f786bbd3e0e2635632","score":2.0},{"no":"3","questionId":"7e981f90724a40d3aae5916b353f8f64","score":3.0},{"no":"4","questionId":"77ee19682910478ab9cf9b68f6a13298","score":4.0},{"no":"5","questionId":"3c694b357b5c4306852c4ea3f26ed24e","score":5.0},{"no":"6","questionId":"1c817982b1184603aec2275ab9dcd1e2","score":6.0},{"no":"7","questionId":"33f5c486c0a447f9a47aeee5ba35affd","score":7.0},{"no":"8","questionId":"7c288922eee541bfbb1b97f11f1f2474","score":8.0},{"no":"9","questionId":"6fe4ebcb5cd049efb4324f734f7bb2e7","score":9.0},{"no":"10","questionId":"3e62c45c0fde494e9e3de0258bdd74e5","score":10.0},{"no":"11","questionId":"a7c71e52013640dab8e3aa8c1b773cdb","score":4.5},{"no":"12","questionId":"738bfd7d62e9491e8beb0fa0275e71d7","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"7b21add87e44427abbd2f65de2a87e06","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"7b21add87e44427abbd2f65de2a87e06","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"2014dsse47","name":"俞瑶创建的第23张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"0768fa286a7347f89cb1f467e765db4e","score":2.0},{"no":"3","questionId":"0768fa286a7347f89cb1f467e765db4e","score":3.0},{"no":"4","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.0},{"no":"5","questionId":"0768fa286a7347f89cb1f467e765db4e","score":5.0},{"no":"6","questionId":"0768fa286a7347f89cb1f467e765db4e","score":6.0},{"no":"7","questionId":"0768fa286a7347f89cb1f467e765db4e","score":7.0},{"no":"8","questionId":"0768fa286a7347f89cb1f467e765db4e","score":8.0},{"no":"9","questionId":"0768fa286a7347f89cb1f467e765db4e","score":9.0},{"no":"10","questionId":"0768fa286a7347f89cb1f467e765db4e","score":10.0},{"no":"11","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"12","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"2014dsse47","name":"俞瑶创建的第23张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"0768fa286a7347f89cb1f467e765db4e","score":2.0},{"no":"3","questionId":"0768fa286a7347f89cb1f467e765db4e","score":3.0},{"no":"4","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.0},{"no":"5","questionId":"0768fa286a7347f89cb1f467e765db4e","score":5.0},{"no":"6","questionId":"0768fa286a7347f89cb1f467e765db4e","score":6.0},{"no":"7","questionId":"0768fa286a7347f89cb1f467e765db4e","score":7.0},{"no":"8","questionId":"0768fa286a7347f89cb1f467e765db4e","score":8.0},{"no":"9","questionId":"0768fa286a7347f89cb1f467e765db4e","score":9.0},{"no":"10","questionId":"0768fa286a7347f89cb1f467e765db4e","score":10.0},{"no":"11","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"12","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}</t>
+    <t>/testpapers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"testpaperId":["data","id"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"yuyao016","name":"俞瑶创建的不一样的题第4张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"9ac4457476d245f786bbd3e0e2635632","score":2.0},{"no":"3","questionId":"7e981f90724a40d3aae5916b353f8f64","score":3.0},{"no":"4","questionId":"77ee19682910478ab9cf9b68f6a13298","score":4.0},{"no":"5","questionId":"3c694b357b5c4306852c4ea3f26ed24e","score":5.0},{"no":"6","questionId":"1c817982b1184603aec2275ab9dcd1e2","score":6.0},{"no":"7","questionId":"33f5c486c0a447f9a47aeee5ba35affd","score":7.0},{"no":"8","questionId":"7c288922eee541bfbb1b97f11f1f2474","score":8.0},{"no":"9","questionId":"6fe4ebcb5cd049efb4324f734f7bb2e7","score":9.0},{"no":"10","questionId":"3e62c45c0fde494e9e3de0258bdd74e5","score":10.0},{"no":"11","questionId":"a7c71e52013640dab8e3aa8c1b773cdb","score":4.5},{"no":"12","questionId":"738bfd7d62e9491e8beb0fa0275e71d7","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"7b21add87e44427abbd2f65de2a87e06","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"7b21add87e44427abbd2f65de2a87e06","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"2014dsse47","name":"俞瑶创建的第23张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"0768fa286a7347f89cb1f467e765db4e","score":2.0},{"no":"3","questionId":"0768fa286a7347f89cb1f467e765db4e","score":3.0},{"no":"4","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.0},{"no":"5","questionId":"0768fa286a7347f89cb1f467e765db4e","score":5.0},{"no":"6","questionId":"0768fa286a7347f89cb1f467e765db4e","score":6.0},{"no":"7","questionId":"0768fa286a7347f89cb1f467e765db4e","score":7.0},{"no":"8","questionId":"0768fa286a7347f89cb1f467e765db4e","score":8.0},{"no":"9","questionId":"0768fa286a7347f89cb1f467e765db4e","score":9.0},{"no":"10","questionId":"0768fa286a7347f89cb1f467e765db4e","score":10.0},{"no":"11","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"12","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"2014dsse47","name":"俞瑶创建的第23张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"0768fa286a7347f89cb1f467e765db4e","score":2.0},{"no":"3","questionId":"0768fa286a7347f89cb1f467e765db4e","score":3.0},{"no":"4","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.0},{"no":"5","questionId":"0768fa286a7347f89cb1f467e765db4e","score":5.0},{"no":"6","questionId":"0768fa286a7347f89cb1f467e765db4e","score":6.0},{"no":"7","questionId":"0768fa286a7347f89cb1f467e765db4e","score":7.0},{"no":"8","questionId":"0768fa286a7347f89cb1f467e765db4e","score":8.0},{"no":"9","questionId":"0768fa286a7347f89cb1f467e765db4e","score":9.0},{"no":"10","questionId":"0768fa286a7347f89cb1f467e765db4e","score":10.0},{"no":"11","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"12","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -425,7 +409,7 @@
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
     <col min="7" max="7" width="38.875" customWidth="1"/>
     <col min="8" max="8" width="36.625" customWidth="1"/>
@@ -436,65 +420,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16695"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20490" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="用户故事" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>添加组卷</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>post</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,6 +29,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/roles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"roleId":["data","id"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取角色详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/roles/{{roleId}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{\"author\":\"俞瑶\",\"belongToCourseId\":\"1\",\"belongToCourseName\":\"课程1\",\"code\":\"0002as21\",\"name\":\"俞瑶超级不耐烦的创建了一个又一个很好的试卷\",\"testPaperStruct\":{\"questionTypeStruct\":[{\"name\":\"单选题\",\"no\":\"一\",\"questionInPaper\":[{\"no\":\"1\",\"questionId\":\"0768fa286a7347f89cb1f467e765db4e\",\"score\":5.0},{\"no\":\"2\",\"questionId\":\"7e981f90724a40d3aae5916b353f8f64\",\"score\":10.0},{\"no\":\"3\",\"questionId\":\"77ee19682910478ab9cf9b68f6a13298\",\"score\":5.0},{\"no\":\"4\",\"questionId\":\"9ac4457476d245f786bbd3e0e2635632\",\"score\":5.0}],\"score\":25.0},{\"name\":\"填空\",\"no\":\"二\",\"questionInPaper\":[{\"no\":\"1\",\"questionId\":\"2a1a727d5af04a45bc3c716969adb2e0\",\"score\":5.0},{\"no\":\"2\",\"questionId\":\"3c694b357b5c4306852c4ea3f26ed24e\",\"score\":15.0}],\"score\":20.0},{\"name\":\"判断\",\"no\":\"三\",\"questionInPaper\":[{\"no\":\"1\",\"questionId\":\"1c817982b1184603aec2275ab9dcd1e2\",\"score\":5.0},{\"no\":\"2\",\"questionId\":\"33f5c486c0a447f9a47aeee5ba35affd\",\"score\":15.0}],\"score\":20.0},{\"name\":\"多选\",\"no\":\"四\",\"questionInPaper\":[{\"no\":\"1\",\"questionId\":\"7c288922eee541bfbb1b97f11f1f2474\",\"score\":5.0},{\"no\":\"2\",\"questionId\":\"6fe4ebcb5cd049efb4324f734f7bb2e7\",\"score\":15.0},{\"no\":\"3\",\"questionId\":\"3e62c45c0fde494e9e3de0258bdd74e5\",\"score\":15.0}],\"score\":35.0}],\"totalScore\":100.0},\"totalScore\":100.0,\"type\":\"期中考试\",\"usedCount\":\"10\"}</t>
+  </si>
+  <si>
+    <t>添加试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/testpapers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -40,11 +84,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"testpaperId":["data","id"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"yuyao016","name":"俞瑶创建的不一样的题第4张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"9ac4457476d245f786bbd3e0e2635632","score":2.0},{"no":"3","questionId":"7e981f90724a40d3aae5916b353f8f64","score":3.0},{"no":"4","questionId":"77ee19682910478ab9cf9b68f6a13298","score":4.0},{"no":"5","questionId":"3c694b357b5c4306852c4ea3f26ed24e","score":5.0},{"no":"6","questionId":"1c817982b1184603aec2275ab9dcd1e2","score":6.0},{"no":"7","questionId":"33f5c486c0a447f9a47aeee5ba35affd","score":7.0},{"no":"8","questionId":"7c288922eee541bfbb1b97f11f1f2474","score":8.0},{"no":"9","questionId":"6fe4ebcb5cd049efb4324f734f7bb2e7","score":9.0},{"no":"10","questionId":"3e62c45c0fde494e9e3de0258bdd74e5","score":10.0},{"no":"11","questionId":"a7c71e52013640dab8e3aa8c1b773cdb","score":4.5},{"no":"12","questionId":"738bfd7d62e9491e8beb0fa0275e71d7","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"7b21add87e44427abbd2f65de2a87e06","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"7b21add87e44427abbd2f65de2a87e06","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"2014dsse47","name":"俞瑶创建的第23张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"0768fa286a7347f89cb1f467e765db4e","score":2.0},{"no":"3","questionId":"0768fa286a7347f89cb1f467e765db4e","score":3.0},{"no":"4","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.0},{"no":"5","questionId":"0768fa286a7347f89cb1f467e765db4e","score":5.0},{"no":"6","questionId":"0768fa286a7347f89cb1f467e765db4e","score":6.0},{"no":"7","questionId":"0768fa286a7347f89cb1f467e765db4e","score":7.0},{"no":"8","questionId":"0768fa286a7347f89cb1f467e765db4e","score":8.0},{"no":"9","questionId":"0768fa286a7347f89cb1f467e765db4e","score":9.0},{"no":"10","questionId":"0768fa286a7347f89cb1f467e765db4e","score":10.0},{"no":"11","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"12","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"2014dsse47","name":"俞瑶创建的第23张新试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":1.0},{"no":"2","questionId":"0768fa286a7347f89cb1f467e765db4e","score":2.0},{"no":"3","questionId":"0768fa286a7347f89cb1f467e765db4e","score":3.0},{"no":"4","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.0},{"no":"5","questionId":"0768fa286a7347f89cb1f467e765db4e","score":5.0},{"no":"6","questionId":"0768fa286a7347f89cb1f467e765db4e","score":6.0},{"no":"7","questionId":"0768fa286a7347f89cb1f467e765db4e","score":7.0},{"no":"8","questionId":"0768fa286a7347f89cb1f467e765db4e","score":8.0},{"no":"9","questionId":"0768fa286a7347f89cb1f467e765db4e","score":9.0},{"no":"10","questionId":"0768fa286a7347f89cb1f467e765db4e","score":10.0},{"no":"11","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"12","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"13","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"14","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"15","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"16","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"17","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"18","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"19","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5},{"no":"20","questionId":"0768fa286a7347f89cb1f467e765db4e","score":4.5}],"score":100.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}</t>
+    <t>{"deletable":"1","description":"测试12222111a色","name":"测0试10211223","type":"自定义"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,28 +457,71 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>0</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -41,50 +41,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>添加角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/roles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"roleId":["data","id"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取角色详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/roles/{{roleId}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/testpapers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/roles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"roleId":["data","id"]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取角色详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/roles/{{roleId}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{\"author\":\"俞瑶\",\"belongToCourseId\":\"1\",\"belongToCourseName\":\"课程1\",\"code\":\"0002as21\",\"name\":\"俞瑶超级不耐烦的创建了一个又一个很好的试卷\",\"testPaperStruct\":{\"questionTypeStruct\":[{\"name\":\"单选题\",\"no\":\"一\",\"questionInPaper\":[{\"no\":\"1\",\"questionId\":\"0768fa286a7347f89cb1f467e765db4e\",\"score\":5.0},{\"no\":\"2\",\"questionId\":\"7e981f90724a40d3aae5916b353f8f64\",\"score\":10.0},{\"no\":\"3\",\"questionId\":\"77ee19682910478ab9cf9b68f6a13298\",\"score\":5.0},{\"no\":\"4\",\"questionId\":\"9ac4457476d245f786bbd3e0e2635632\",\"score\":5.0}],\"score\":25.0},{\"name\":\"填空\",\"no\":\"二\",\"questionInPaper\":[{\"no\":\"1\",\"questionId\":\"2a1a727d5af04a45bc3c716969adb2e0\",\"score\":5.0},{\"no\":\"2\",\"questionId\":\"3c694b357b5c4306852c4ea3f26ed24e\",\"score\":15.0}],\"score\":20.0},{\"name\":\"判断\",\"no\":\"三\",\"questionInPaper\":[{\"no\":\"1\",\"questionId\":\"1c817982b1184603aec2275ab9dcd1e2\",\"score\":5.0},{\"no\":\"2\",\"questionId\":\"33f5c486c0a447f9a47aeee5ba35affd\",\"score\":15.0}],\"score\":20.0},{\"name\":\"多选\",\"no\":\"四\",\"questionInPaper\":[{\"no\":\"1\",\"questionId\":\"7c288922eee541bfbb1b97f11f1f2474\",\"score\":5.0},{\"no\":\"2\",\"questionId\":\"6fe4ebcb5cd049efb4324f734f7bb2e7\",\"score\":15.0},{\"no\":\"3\",\"questionId\":\"3e62c45c0fde494e9e3de0258bdd74e5\",\"score\":15.0}],\"score\":35.0}],\"totalScore\":100.0},\"totalScore\":100.0,\"type\":\"期中考试\",\"usedCount\":\"10\"}</t>
-  </si>
-  <si>
-    <t>添加试卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/testpapers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"deletable":"1","description":"测试12222111a色","name":"测0试10211223","type":"自定义"}</t>
+    <t>{"roleName":["data","name"]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"author":"俞瑶","belongToCourseId":"1","belongToCourseName":"课程1","code":"{{roleName}}","name":"俞瑶超级不耐烦的创建了一个又一个很好的试卷","testPaperStruct":{"questionTypeStruct":[{"name":"单选题","no":"一","questionInPaper":[{"no":"1","questionId":"0768fa286a7347f89cb1f467e765db4e","score":5.0},{"no":"2","questionId":"7e981f90724a40d3aae5916b353f8f64","score":10.0},{"no":"3","questionId":"77ee19682910478ab9cf9b68f6a13298","score":5.0},{"no":"4","questionId":"9ac4457476d245f786bbd3e0e2635632","score":5.0}],"score":25.0},{"name":"填空","no":"二","questionInPaper":[{"no":"1","questionId":"2a1a727d5af04a45bc3c716969adb2e0","score":5.0},{"no":"2","questionId":"3c694b357b5c4306852c4ea3f26ed24e","score":15.0}],"score":20.0},{"name":"判断","no":"三","questionInPaper":[{"no":"1","questionId":"1c817982b1184603aec2275ab9dcd1e2","score":5.0},{"no":"2","questionId":"33f5c486c0a447f9a47aeee5ba35affd","score":15.0}],"score":20.0},{"name":"多选","no":"四","questionInPaper":[{"no":"1","questionId":"7c288922eee541bfbb1b97f11f1f2474","score":5.0},{"no":"2","questionId":"6fe4ebcb5cd049efb4324f734f7bb2e7","score":15.0},{"no":"3","questionId":"3e62c45c0fde494e9e3de0258bdd74e5","score":15.0}],"score":35.0}],"totalScore":100.0},"totalScore":100.0,"type":"期中考试","usedCount":"10"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"deletable":"1","description":"测试12221a色","name":"自定义的","type":"自定义"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -449,7 +450,7 @@
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="90.5" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
     <col min="7" max="7" width="38.875" customWidth="1"/>
     <col min="8" max="8" width="36.625" customWidth="1"/>
@@ -457,13 +458,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -478,18 +479,18 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -498,30 +499,33 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
